--- a/prizmer/static/excel/electric_template_for_load.xlsx
+++ b/prizmer/static/excel/electric_template_for_load.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="17112" windowHeight="7620"/>
+    <workbookView xWindow="240" yWindow="69" windowWidth="17109" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Electr_k1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Населенный пункт</t>
   </si>
@@ -100,8 +100,41 @@
     <t>* Счётчики Меркурий-234 записываются как Меркурий 230, т.е. М-230</t>
   </si>
   <si>
+    <t>ВРУ-1 Ввод1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>М-230-УМ</t>
+  </si>
+  <si>
+    <t>192.168.15.10</t>
+  </si>
+  <si>
+    <t>ВРУ-1 Ввод2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ВРУ Корпус 1</t>
+  </si>
+  <si>
+    <t>ВРУ Корпус 2</t>
+  </si>
+  <si>
+    <t>Чтение получас. профилей мощности A+ и R+</t>
+  </si>
+  <si>
+    <t>4* При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
+  </si>
+  <si>
+    <t>3* Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">** Токи трансформации для квартир -1, для ВРУ и ГРЩ конечная цифра, а не дробь, т.е. НЕ 250/5, а </t>
+      <t xml:space="preserve">** Токи трансформации для квартир 1, для ВРУ и ГРЩ конечная цифра, а не дробь, т.е. НЕ 250/5, а </t>
     </r>
     <r>
       <rPr>
@@ -116,34 +149,16 @@
     </r>
   </si>
   <si>
-    <t>*** Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
-  </si>
-  <si>
-    <t>ВРУ-1 Ввод1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>М-230-УМ</t>
-  </si>
-  <si>
-    <t>192.168.15.10</t>
-  </si>
-  <si>
-    <t>ВРУ-1 Ввод2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ВРУ Корпус 1</t>
-  </si>
-  <si>
-    <t>ВРУ Корпус 2</t>
-  </si>
-  <si>
-    <t>**** При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
+    <t xml:space="preserve"> Чтение реакт. энергии T0 R+</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5* Если необходимо чтение из прибора реактивной энергии R+ и/или Получасовых профилей мощности A+ и R+ (обязательно для отчёта по форме 80020), то поставьте в соответсвующей колонке "+". Если чтение этих параметров не нужно (НЕ рекомендуется для квартир), то оставьте это поле пустым или напишите "-"</t>
   </si>
 </sst>
 </file>
@@ -238,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -276,13 +291,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -340,7 +379,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -676,25 +731,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="Q12" sqref="Q12:Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.07421875" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
+    <col min="3" max="3" width="20.84375" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" customWidth="1"/>
+    <col min="7" max="7" width="11.69140625" customWidth="1"/>
+    <col min="8" max="8" width="11.53515625" customWidth="1"/>
+    <col min="10" max="10" width="6.4609375" customWidth="1"/>
+    <col min="11" max="11" width="13.53515625" customWidth="1"/>
+    <col min="14" max="14" width="10.69140625" customWidth="1"/>
+    <col min="15" max="15" width="9.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,14 +785,20 @@
       <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="26" t="s">
         <v>10</v>
       </c>
+      <c r="N1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="11.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -765,11 +828,14 @@
       <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="24">
         <v>4003</v>
       </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -799,25 +865,55 @@
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="24">
         <v>4003</v>
       </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10">
+        <v>29936803</v>
+      </c>
+      <c r="H4" s="8">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13">
+        <v>80</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="24">
+        <v>5004</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -825,18 +921,18 @@
         <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="11"/>
       <c r="G5" s="10">
-        <v>29936803</v>
+        <v>29936836</v>
       </c>
       <c r="H5" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>11</v>
@@ -847,11 +943,18 @@
       <c r="K5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="24">
         <v>5004</v>
       </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -862,30 +965,37 @@
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="11"/>
       <c r="G6" s="10">
-        <v>29936836</v>
+        <v>29937023</v>
       </c>
       <c r="H6" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="13">
-        <v>80</v>
+      <c r="J6" s="9">
+        <v>30</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="24">
         <v>5004</v>
       </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -896,201 +1006,195 @@
         <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="10">
-        <v>29937023</v>
+        <v>31571813</v>
       </c>
       <c r="H7" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="9">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="24">
         <v>5004</v>
       </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:26" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10">
-        <v>31571813</v>
-      </c>
-      <c r="H8" s="8">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="11">
-        <v>5004</v>
-      </c>
+      <c r="C8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18">
+        <v>701</v>
+      </c>
+      <c r="G8" s="19">
+        <v>32375394</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="16">
+        <v>80</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="25">
+        <v>4002</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="Q8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
     </row>
-    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="9" spans="1:26" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18">
+        <v>702</v>
+      </c>
+      <c r="G9" s="19">
+        <v>32952201</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="16">
+        <v>80</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="25">
+        <v>4002</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="Q9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+    </row>
+    <row r="10" spans="1:26" ht="26.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18">
-        <v>701</v>
-      </c>
-      <c r="G10" s="19">
-        <v>32375394</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16">
-        <v>80</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="22">
-        <v>4002</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
     </row>
-    <row r="11" spans="1:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18">
-        <v>702</v>
-      </c>
-      <c r="G11" s="19">
-        <v>32952201</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="16">
-        <v>80</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="22">
-        <v>4002</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-    </row>
-    <row r="12" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-    </row>
-    <row r="13" spans="1:26" ht="29.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
+    <row r="12" spans="1:26" ht="38.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q10:Z10"/>
     <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="Q10:Z10"/>
     <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="Q13:Z13"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:G11">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G11">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
